--- a/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,59; 93,26</t>
+          <t>82,94; 93,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,38; 93,91</t>
+          <t>85,1; 94,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,67; 92,77</t>
+          <t>85,35; 92,46</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,33; 91,54</t>
+          <t>83,39; 91,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,46; 87,65</t>
+          <t>74,46; 87,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,72; 88,53</t>
+          <t>80,14; 88,45</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,72; 91,34</t>
+          <t>85,8; 91,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,43; 89,37</t>
+          <t>84,41; 89,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,97; 89,57</t>
+          <t>85,74; 89,42</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,04; 92,28</t>
+          <t>87,15; 92,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,94; 88,11</t>
+          <t>83,7; 88,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,21; 89,66</t>
+          <t>86,26; 89,58</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,38; 89,61</t>
+          <t>84,09; 89,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,99; 90,71</t>
+          <t>86,74; 90,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,22; 89,74</t>
+          <t>86,33; 89,58</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,69; 88,93</t>
+          <t>84,49; 88,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,79; 91,58</t>
+          <t>84,94; 92,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,48; 90,26</t>
+          <t>85,42; 90,22</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>86,98; 89,46</t>
+          <t>87,05; 89,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,6; 88,49</t>
+          <t>85,65; 88,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,51</t>
+          <t>86,74; 88,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,94; 93,4</t>
+          <t>82,59; 93,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,1; 94,03</t>
+          <t>85,38; 93,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,35; 92,46</t>
+          <t>85,67; 92,77</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,39; 91,36</t>
+          <t>83,33; 91,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,46; 87,95</t>
+          <t>73,46; 87,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,14; 88,45</t>
+          <t>79,72; 88,53</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,8; 91,23</t>
+          <t>85,72; 91,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,41; 89,05</t>
+          <t>84,43; 89,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,74; 89,42</t>
+          <t>85,97; 89,57</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,15; 92,53</t>
+          <t>87,04; 92,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,7; 88,11</t>
+          <t>83,94; 88,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,26; 89,58</t>
+          <t>86,21; 89,66</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,09; 89,74</t>
+          <t>84,38; 89,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,74; 90,68</t>
+          <t>86,99; 90,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,33; 89,58</t>
+          <t>86,22; 89,74</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,49; 88,92</t>
+          <t>84,69; 88,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,94; 92,42</t>
+          <t>84,79; 91,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,42; 90,22</t>
+          <t>85,48; 90,26</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,05; 89,49</t>
+          <t>86,98; 89,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,65; 88,54</t>
+          <t>85,6; 88,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,74; 88,71</t>
+          <t>86,53; 88,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>88,45%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,59; 93,26</t>
+          <t>80,26; 92,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,38; 93,91</t>
+          <t>84,35; 93,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,67; 92,77</t>
+          <t>83,67; 92,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>72,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>79,13%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,33; 91,54</t>
+          <t>81,96; 90,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,46; 87,65</t>
+          <t>45,81; 86,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,72; 88,53</t>
+          <t>58,74; 86,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>86,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>87,09%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,72; 91,34</t>
+          <t>84,77; 90,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,43; 89,37</t>
+          <t>83,37; 88,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,97; 89,57</t>
+          <t>85,1; 88,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>91,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>89,06%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,04; 92,28</t>
+          <t>87,48; 96,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,94; 88,11</t>
+          <t>83,3; 87,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,21; 89,66</t>
+          <t>86,29; 93,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>86,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>87,37%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,38; 89,61</t>
+          <t>83,33; 88,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,99; 90,71</t>
+          <t>86,39; 90,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,22; 89,74</t>
+          <t>85,54; 89,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>90,7%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,69; 88,93</t>
+          <t>85,48; 91,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,79; 91,58</t>
+          <t>86,77; 96,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,48; 90,26</t>
+          <t>87,23; 95,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>87,62%</t>
+          <t>82,63%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>86,98; 89,46</t>
+          <t>78,39; 86,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,6; 88,49</t>
+          <t>79,52; 85,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,51</t>
+          <t>80,15; 85,07</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>88,2%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>85,37%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>86,59; 91,03</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>79,01; 87,97</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>83,85; 88,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,26; 92,91</t>
+          <t>79,93; 92,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,35; 93,38</t>
+          <t>83,93; 93,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,67; 92,16</t>
+          <t>83,79; 91,89</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,96; 90,88</t>
+          <t>81,9; 90,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,81; 86,08</t>
+          <t>41,99; 85,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,74; 86,76</t>
+          <t>59,51; 86,97</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,77; 90,76</t>
+          <t>84,71; 90,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,37; 88,66</t>
+          <t>83,65; 88,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,1; 88,92</t>
+          <t>85,02; 89,09</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,48; 96,21</t>
+          <t>87,28; 96,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,3; 87,63</t>
+          <t>83,24; 87,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,29; 93,35</t>
+          <t>86,15; 94,05</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,33; 88,95</t>
+          <t>83,44; 89,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,39; 90,24</t>
+          <t>86,38; 90,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,54; 89,15</t>
+          <t>85,72; 89,12</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,48; 91,14</t>
+          <t>85,38; 91,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86,77; 96,93</t>
+          <t>86,54; 96,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,23; 95,53</t>
+          <t>87,37; 96,1</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>78,39; 86,33</t>
+          <t>78,6; 86,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,52; 85,58</t>
+          <t>79,26; 85,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,15; 85,07</t>
+          <t>80,25; 84,8</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>86,59; 91,03</t>
+          <t>86,56; 91,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,01; 87,97</t>
+          <t>79,85; 87,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,85; 88,5</t>
+          <t>83,85; 88,45</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>311647</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>248593</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>560241</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>284383; 329644</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>232972; 259563</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>530731; 582008</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>338344</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>351237</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>689581</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>318713; 354044</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>202552; 414707</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>518619; 757978</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>449128</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>446984</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>896112</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>432333; 463679</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>433766; 458954</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>874797; 916693</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>777527</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>555484</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1333011</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>740034; 818624</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>540179; 568594</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1289424; 1407651</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>452308</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>451603</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>903911</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>436681; 466296</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>441534; 463143</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>886751; 921933</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>297502</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>522881</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>820382</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>286928; 306176</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>491954; 550109</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>790274; 869217</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>202325</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>280662</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>482987</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>192224; 211424</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>269492; 289934</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>469088; 495729</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2675</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>6857</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2828781</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2857444</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>5686225</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2776002; 2918806</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2672728; 2942438</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>5495729; 5797475</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>